--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{54BEEA04-FA48-434E-90AA-3B64749FDC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C1DAC-7B4D-4A10-A7DC-853F74B48C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,6 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -239,6 +230,9 @@
   </si>
   <si>
     <t>Unit test</t>
+  </si>
+  <si>
+    <t>aiming for 18 days total used to have some breathingroom</t>
   </si>
 </sst>
 </file>
@@ -615,6 +609,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -624,9 +630,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -641,15 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1060,10 +1054,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO32"/>
+  <dimension ref="B1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1101,66 +1095,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="33"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1187,7 +1181,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1402,14 +1396,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1438,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -1612,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1628,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1817,19 +1811,24 @@
         <v>40</v>
       </c>
     </row>
+    <row r="33" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C1DAC-7B4D-4A10-A7DC-853F74B48C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6924CAC9-306C-4FA1-B637-7EDD8B37DAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,6 +609,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -617,33 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1057,7 +1057,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1095,66 +1095,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1181,7 +1181,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1531,10 +1531,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -1619,10 +1619,10 @@
         <v>41</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1683,7 +1683,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
         <v>5</v>
@@ -1699,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
         <v>8</v>
@@ -1715,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
         <v>2</v>
@@ -1811,24 +1811,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6924CAC9-306C-4FA1-B637-7EDD8B37DAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED926D08-E578-434B-8ED4-3963D8EBAA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -609,6 +609,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,9 +630,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -635,15 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1057,7 +1057,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1095,66 +1095,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="33"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1181,7 +1181,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1401,9 +1401,11 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
       <c r="G6" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1513,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -1651,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -1818,17 +1820,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED926D08-E578-434B-8ED4-3963D8EBAA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F195A637-C6F8-4EA7-A68B-BF34A6A6937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -1056,8 +1056,8 @@
   </sheetPr>
   <dimension ref="B1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1454,10 +1454,12 @@
       <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1470,10 +1472,12 @@
       <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,10 +1490,12 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1507,7 +1513,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,9 +1547,11 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1561,7 +1569,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,7 +1587,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1597,7 +1605,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1610,10 +1618,12 @@
       <c r="D18" s="7">
         <v>16</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,10 +1636,12 @@
       <c r="D19" s="7">
         <v>14</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1642,10 +1654,12 @@
       <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F195A637-C6F8-4EA7-A68B-BF34A6A6937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C3B71-78E7-4506-8A8E-9BB691E45191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="3390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>User API projekt</t>
   </si>
   <si>
-    <t>Catering API projekt</t>
-  </si>
-  <si>
     <t>got 19 days in total</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>aiming for 18 days total used to have some breathingroom</t>
+  </si>
+  <si>
+    <t>Catering Dataproces projekt</t>
   </si>
 </sst>
 </file>
@@ -609,6 +609,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -617,33 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1056,8 +1056,8 @@
   </sheetPr>
   <dimension ref="B1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1092,69 +1092,69 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1181,7 +1181,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
@@ -1824,27 +1824,27 @@
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C3B71-78E7-4506-8A8E-9BB691E45191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0861A-7BAA-49CC-AE0B-4074A939827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="3390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -346,8 +346,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +394,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -476,7 +488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,8 +544,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,6 +622,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,9 +643,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,17 +658,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="% fuldført" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Aktivitet" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Forklarende tekst" xfId="12" builtinId="53" customBuiltin="1"/>
@@ -665,6 +687,7 @@
     <cellStyle name="Sidehoveder for projekt" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Sidehoveder for tidsrum" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Titel" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Ugyldig" xfId="19" builtinId="27"/>
     <cellStyle name="Værdi for tidsrum" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="10">
@@ -1056,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1095,66 +1118,66 @@
         <v>3</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="33"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1181,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1493,9 +1516,11 @@
       <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1511,9 +1536,11 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1529,9 +1556,11 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1567,9 +1596,11 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
       <c r="G15" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1603,9 +1634,11 @@
       <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
       <c r="G17" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1657,9 +1690,11 @@
       <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
       <c r="G20" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,25 +1707,27 @@
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="38">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="38">
         <v>6</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1704,10 +1741,12 @@
       <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,17 +1873,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0861A-7BAA-49CC-AE0B-4074A939827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081BD096-5DCE-4DDA-885A-71BBE071BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,6 +622,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -630,42 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="32" t="s">
@@ -1134,50 +1134,50 @@
       <c r="T2" s="35"/>
       <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="30"/>
+      <c r="X2" s="29"/>
       <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,12 +1204,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1480,9 +1480,11 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
       <c r="G9" s="8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1498,9 +1500,11 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
       <c r="G10" s="8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,9 +1620,11 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
       <c r="G16" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,24 +1716,26 @@
       <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
       <c r="G21" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="26">
         <v>3</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="26">
         <v>6</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1775,10 +1783,14 @@
       <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
       <c r="G25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,17 +1885,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081BD096-5DCE-4DDA-885A-71BBE071BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB7A81-6B51-4F58-984E-4AE34798CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1885,17 +1885,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB7A81-6B51-4F58-984E-4AE34798CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC716301-B87E-45DD-861B-0D406A95A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,10 +1077,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO33"/>
+  <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1093,7 @@
     <col min="9" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1118,66 +1118,66 @@
         <v>5</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1203,8 +1203,8 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1267,131 +1267,9 @@
       <c r="Z4" s="3">
         <v>19</v>
       </c>
-      <c r="AA4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1410,8 +1288,9 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1430,8 +1309,9 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1446,10 +1326,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1464,10 +1345,11 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1368,9 @@
       <c r="G9" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1506,8 +1389,9 @@
       <c r="G10" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA10"/>
+    </row>
+    <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1526,8 +1410,9 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>27</v>
       </c>
@@ -1546,8 +1431,9 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA12"/>
+    </row>
+    <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
@@ -1566,8 +1452,9 @@
       <c r="G13" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1586,8 +1473,9 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1606,8 +1494,9 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1626,8 +1515,9 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1646,8 +1536,9 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1664,8 +1555,9 @@
       <c r="G18" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1682,8 +1574,9 @@
       <c r="G19" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA19"/>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
@@ -1702,8 +1595,9 @@
       <c r="G20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -1722,8 +1616,9 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>42</v>
       </c>
@@ -1738,8 +1633,9 @@
       <c r="G22" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
@@ -1754,10 +1650,11 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1767,13 +1664,16 @@
       <c r="D24" s="7">
         <v>8</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA24"/>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1792,8 +1692,9 @@
       <c r="G25" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA25"/>
+    </row>
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1709,9 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA26"/>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1824,8 +1726,9 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA27"/>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +1743,9 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA28"/>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1856,8 +1760,9 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA29"/>
+    </row>
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
@@ -1872,8 +1777,9 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA30"/>
+    </row>
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1885,29 +1791,29 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:Z4">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:Z30">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC716301-B87E-45DD-861B-0D406A95A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE160F61-2CD6-48E9-BF92-F97E3C854F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA24"/>
     </row>
@@ -1791,17 +1791,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE160F61-2CD6-48E9-BF92-F97E3C854F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA1104-2FD0-448D-9C3A-DCB90BA9D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1791,17 +1791,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA1104-2FD0-448D-9C3A-DCB90BA9D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80B9D2-A840-44F3-81F5-03C9CDA0C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,18 +43,6 @@
     <t>AKTIVITET</t>
   </si>
   <si>
-    <t>Aktivitet 22</t>
-  </si>
-  <si>
-    <t>Aktivitet 23</t>
-  </si>
-  <si>
-    <t>Aktivitet 24</t>
-  </si>
-  <si>
-    <t>Aktivitet 25</t>
-  </si>
-  <si>
     <t>Aktivitet 26</t>
   </si>
   <si>
@@ -233,6 +221,18 @@
   </si>
   <si>
     <t>Catering Dataproces projekt</t>
+  </si>
+  <si>
+    <t>Catering REST API</t>
+  </si>
+  <si>
+    <t>Catering Dataprocess update</t>
+  </si>
+  <si>
+    <t>Kravspecifikationer update</t>
+  </si>
+  <si>
+    <t>Testspecifikationer iåpdate</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:AP33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1112,14 +1112,14 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -1127,7 +1127,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
@@ -1135,13 +1135,13 @@
       <c r="U2" s="34"/>
       <c r="V2" s="18"/>
       <c r="W2" s="28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X2" s="29"/>
       <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
@@ -1150,7 +1150,7 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
       <c r="AH2" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
@@ -1166,22 +1166,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="5" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="6" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1366,13 +1366,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA9"/>
     </row>
     <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1387,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA10"/>
     </row>
     <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
@@ -1450,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA13"/>
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -1553,13 +1553,13 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="AA18"/>
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1572,13 +1572,13 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA19"/>
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="26">
         <v>3</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -1648,15 +1648,17 @@
       <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
       <c r="G23" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA23"/>
     </row>
     <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -1667,15 +1669,17 @@
       <c r="E24" s="7">
         <v>6</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
       <c r="G24" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AA24"/>
     </row>
     <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -1696,47 +1700,51 @@
     </row>
     <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA26"/>
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA27"/>
     </row>
     <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1747,13 +1755,13 @@
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1764,7 +1772,7 @@
     </row>
     <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -1781,12 +1789,12 @@
     </row>
     <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80B9D2-A840-44F3-81F5-03C9CDA0C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3E6176-9F8C-458A-8B51-D39D68E03C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
     <t>Kravspecifikationer update</t>
   </si>
   <si>
-    <t>Testspecifikationer iåpdate</t>
+    <t>Testspecifikationer update</t>
   </si>
 </sst>
 </file>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1118,66 +1118,66 @@
         <v>8</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1799,17 +1799,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3E6176-9F8C-458A-8B51-D39D68E03C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95EB8B7-96A6-49EC-97E9-6123C14AFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>8</v>
       </c>
       <c r="H2" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1746,10 +1746,14 @@
       <c r="D28" s="7">
         <v>1</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
       <c r="G28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28"/>
     </row>
@@ -1763,10 +1767,14 @@
       <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29"/>
     </row>
@@ -1799,17 +1807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95EB8B7-96A6-49EC-97E9-6123C14AFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD49BCB-EB0A-4925-BE5A-B95B3B23D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1118,66 +1118,66 @@
         <v>9</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AA26"/>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AA27"/>
     </row>
@@ -1807,17 +1807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD49BCB-EB0A-4925-BE5A-B95B3B23D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC7F06-04DE-414D-93D3-34FDD4A83265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>8</v>
       </c>
       <c r="H2" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="AA19"/>
     </row>
@@ -1711,9 +1711,11 @@
       <c r="E26" s="7">
         <v>8</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>3</v>
+      </c>
       <c r="G26" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA26"/>
     </row>
@@ -1730,9 +1732,11 @@
       <c r="E27" s="7">
         <v>8</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>3</v>
+      </c>
       <c r="G27" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA27"/>
     </row>
@@ -1807,17 +1811,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC7F06-04DE-414D-93D3-34FDD4A83265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611E0C2-0DCD-4962-9AAA-A52CA51C4FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>8</v>
       </c>
       <c r="H2" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1811,17 +1811,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611E0C2-0DCD-4962-9AAA-A52CA51C4FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0531518-6DAF-4801-8080-FD77005CD4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>8</v>
       </c>
       <c r="H2" s="15">
+        <v>12</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1551,9 +1551,11 @@
       <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>11</v>
+      </c>
       <c r="G18" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA18"/>
     </row>
@@ -1811,17 +1813,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0531518-6DAF-4801-8080-FD77005CD4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB79727-CA48-4B5E-9839-040C9977AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:AP33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1118,66 +1118,66 @@
         <v>12</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1572,9 +1572,11 @@
       <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
       <c r="G19" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA19"/>
     </row>
@@ -1813,17 +1815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB79727-CA48-4B5E-9839-040C9977AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8066FBC-0176-4D77-B714-C22A51D5CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:AP33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,69 +1115,69 @@
         <v>8</v>
       </c>
       <c r="H2" s="15">
+        <v>13</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1815,17 +1815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8066FBC-0176-4D77-B714-C22A51D5CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3A5AF-D394-4E16-AC0E-30EB88D60D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,9 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1080,7 +1080,7 @@
   <dimension ref="B1:AP33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1118,66 +1118,66 @@
         <v>13</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1204,7 +1204,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1815,17 +1815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3A5AF-D394-4E16-AC0E-30EB88D60D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC72B41-81E3-4B40-8D71-108D0942A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>AKTIVITET</t>
-  </si>
-  <si>
-    <t>Aktivitet 26</t>
   </si>
   <si>
     <t>STARTDATO FOR PLAN</t>
@@ -631,6 +628,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -639,33 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,10 +1074,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP33"/>
+  <dimension ref="B1:AP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1087,9 @@
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="3.25" style="1" customWidth="1"/>
-    <col min="9" max="27" width="3.25" style="1"/>
+    <col min="9" max="16" width="3.25" style="1"/>
+    <col min="17" max="17" width="3.25" style="1" customWidth="1"/>
+    <col min="18" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1112,76 +1111,76 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="15">
+        <v>14</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1204,7 +1203,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1271,7 +1270,7 @@
     </row>
     <row r="5" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1292,7 +1291,7 @@
     </row>
     <row r="6" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1313,7 +1312,7 @@
     </row>
     <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1332,7 +1331,7 @@
     </row>
     <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1351,7 +1350,7 @@
     </row>
     <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1372,7 +1371,7 @@
     </row>
     <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1393,7 +1392,7 @@
     </row>
     <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1414,7 +1413,7 @@
     </row>
     <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1435,7 +1434,7 @@
     </row>
     <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
@@ -1456,7 +1455,7 @@
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1477,7 +1476,7 @@
     </row>
     <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1498,7 +1497,7 @@
     </row>
     <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -1519,7 +1518,7 @@
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1540,7 +1539,7 @@
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -1561,7 +1560,7 @@
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1582,7 +1581,7 @@
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -1603,7 +1602,7 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -1624,7 +1623,7 @@
     </row>
     <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="26">
         <v>3</v>
@@ -1641,7 +1640,7 @@
     </row>
     <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -1662,7 +1661,7 @@
     </row>
     <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -1683,7 +1682,7 @@
     </row>
     <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -1704,7 +1703,7 @@
     </row>
     <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -1725,7 +1724,7 @@
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>8</v>
@@ -1746,7 +1745,7 @@
     </row>
     <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>9</v>
@@ -1767,7 +1766,7 @@
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
@@ -1786,48 +1785,31 @@
       </c>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA30"/>
-    </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -1837,7 +1819,7 @@
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:Z30">
+  <conditionalFormatting sqref="H5:Z29">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC72B41-81E3-4B40-8D71-108D0942A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FB884-22D4-400E-98A5-B85682E9E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -628,6 +628,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -637,9 +649,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -654,15 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,7 +1077,7 @@
   <dimension ref="B1:AP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,69 +1114,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="15">
+        <v>15</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1203,7 +1203,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1797,17 +1797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FB884-22D4-400E-98A5-B85682E9E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A014D9-8629-4CB9-BE11-D5B3CD3C05C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,6 +628,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -636,33 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,7 +1077,7 @@
   <dimension ref="B1:AP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,69 +1114,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1203,7 +1203,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1797,17 +1797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A014D9-8629-4CB9-BE11-D5B3CD3C05C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7043BD-98CB-4F7E-993E-730F4128DDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,6 +628,18 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -637,9 +649,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -654,15 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,7 +1077,7 @@
   <dimension ref="B1:AP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,69 +1114,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1203,7 +1203,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1797,17 +1797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Data/Schedule.xlsx
+++ b/Data/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7043BD-98CB-4F7E-993E-730F4128DDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC86EE-D2E6-447F-BEDE-E14AD03F1EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,6 +628,33 @@
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -636,33 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1077,7 +1077,7 @@
   <dimension ref="B1:AP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,69 +1114,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1203,7 +1203,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1323,9 +1323,11 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>18</v>
+      </c>
       <c r="G7" s="8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AA7"/>
     </row>
@@ -1342,9 +1344,11 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>18</v>
+      </c>
       <c r="G8" s="8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AA8"/>
     </row>
@@ -1797,17 +1801,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="9" priority="2">
